--- a/Data/Survey.xlsx
+++ b/Data/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chert\Desktop\cherteosg\ISSS608-VAA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BF71D0-9DA2-4750-B94D-2CEFFFB28C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4354C0-69EF-4BE4-8435-49B20D893CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$726</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -479,10 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -660,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -741,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -822,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -870,7 +874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -948,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4218,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -5271,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -6306,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -7611,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -7848,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1</v>
       </c>
@@ -8145,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -8301,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
@@ -8532,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1</v>
       </c>
@@ -8751,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1</v>
       </c>
@@ -8823,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -9198,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -9507,7 +9511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1</v>
       </c>
@@ -9747,7 +9751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1</v>
       </c>
@@ -10152,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1</v>
       </c>
@@ -10212,7 +10216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1</v>
       </c>
@@ -10263,7 +10267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1</v>
       </c>
@@ -10386,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1</v>
       </c>
@@ -10503,7 +10507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1</v>
       </c>
@@ -10581,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1</v>
       </c>
@@ -10818,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1</v>
       </c>
@@ -11025,7 +11029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1</v>
       </c>
@@ -11103,7 +11107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1</v>
       </c>
@@ -11163,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1</v>
       </c>
@@ -11313,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>5</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>5</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>5</v>
       </c>
@@ -11526,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>5</v>
       </c>
@@ -11580,7 +11584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>5</v>
       </c>
@@ -11658,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>5</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>5</v>
       </c>
@@ -11814,7 +11818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>5</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>5</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5</v>
       </c>
@@ -12027,7 +12031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>5</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>5</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>5</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>5</v>
       </c>
@@ -12408,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5</v>
       </c>
@@ -12489,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>5</v>
       </c>
@@ -12546,7 +12550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>5</v>
       </c>
@@ -12624,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>5</v>
       </c>
@@ -12702,7 +12706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>5</v>
       </c>
@@ -12861,7 +12865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>5</v>
       </c>
@@ -12936,7 +12940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>5</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>5</v>
       </c>
@@ -13059,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>5</v>
       </c>
@@ -13191,7 +13195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>5</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>5</v>
       </c>
@@ -13401,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>5</v>
       </c>
@@ -13461,7 +13465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>5</v>
       </c>
@@ -13539,7 +13543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>5</v>
       </c>
@@ -13596,7 +13600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>5</v>
       </c>
@@ -13653,7 +13657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>5</v>
       </c>
@@ -13698,7 +13702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>5</v>
       </c>
@@ -13749,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>5</v>
       </c>
@@ -13809,7 +13813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>5</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>5</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>5</v>
       </c>
@@ -14013,7 +14017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>5</v>
       </c>
@@ -14082,7 +14086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>5</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>5</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>5</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>5</v>
       </c>
@@ -14358,7 +14362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>5</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>5</v>
       </c>
@@ -14475,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>5</v>
       </c>
@@ -14553,7 +14557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>5</v>
       </c>
@@ -14631,7 +14635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>3</v>
       </c>
@@ -14703,7 +14707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>3</v>
       </c>
@@ -14772,7 +14776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>3</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>3</v>
       </c>
@@ -14928,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>3</v>
       </c>
@@ -15006,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>3</v>
       </c>
@@ -15084,7 +15088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>3</v>
       </c>
@@ -15138,7 +15142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>3</v>
       </c>
@@ -15192,7 +15196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>3</v>
       </c>
@@ -15249,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>3</v>
       </c>
@@ -15327,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>3</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>3</v>
       </c>
@@ -15483,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>3</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>3</v>
       </c>
@@ -15639,7 +15643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>3</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>3</v>
       </c>
@@ -15795,7 +15799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>3</v>
       </c>
@@ -15873,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>3</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>3</v>
       </c>
@@ -16008,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>3</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>3</v>
       </c>
@@ -16131,7 +16135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>3</v>
       </c>
@@ -16179,7 +16183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>3</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>3</v>
       </c>
@@ -16311,7 +16315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>3</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>3</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>3</v>
       </c>
@@ -16533,7 +16537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>3</v>
       </c>
@@ -16599,7 +16603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>3</v>
       </c>
@@ -16677,7 +16681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>3</v>
       </c>
@@ -16746,7 +16750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>3</v>
       </c>
@@ -16821,7 +16825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>3</v>
       </c>
@@ -16863,7 +16867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>3</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>3</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>3</v>
       </c>
@@ -17061,7 +17065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>4</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>4</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>4</v>
       </c>
@@ -17283,7 +17287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>4</v>
       </c>
@@ -17349,7 +17353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>4</v>
       </c>
@@ -17427,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>4</v>
       </c>
@@ -17505,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>4</v>
       </c>
@@ -17583,7 +17587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>4</v>
       </c>
@@ -17661,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>4</v>
       </c>
@@ -17736,7 +17740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>4</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>4</v>
       </c>
@@ -17883,7 +17887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>4</v>
       </c>
@@ -17964,7 +17968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>4</v>
       </c>
@@ -18027,7 +18031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>4</v>
       </c>
@@ -18084,7 +18088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>4</v>
       </c>
@@ -18162,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>4</v>
       </c>
@@ -18303,7 +18307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>4</v>
       </c>
@@ -18381,7 +18385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>4</v>
       </c>
@@ -18444,7 +18448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>4</v>
       </c>
@@ -18510,7 +18514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>4</v>
       </c>
@@ -18570,7 +18574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>4</v>
       </c>
@@ -18645,7 +18649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>4</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>4</v>
       </c>
@@ -18795,7 +18799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>4</v>
       </c>
@@ -18864,7 +18868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>4</v>
       </c>
@@ -18936,7 +18940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>4</v>
       </c>
@@ -19005,7 +19009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>4</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>4</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>4</v>
       </c>
@@ -19218,7 +19222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>4</v>
       </c>
@@ -19296,7 +19300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>4</v>
       </c>
@@ -19443,7 +19447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>4</v>
       </c>
@@ -19524,7 +19528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>4</v>
       </c>
@@ -19599,7 +19603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>4</v>
       </c>
@@ -19680,7 +19684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>4</v>
       </c>
@@ -19758,7 +19762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>4</v>
       </c>
@@ -19836,7 +19840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>4</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>4</v>
       </c>
@@ -19980,7 +19984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>4</v>
       </c>
@@ -20046,7 +20050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>4</v>
       </c>
@@ -20121,7 +20125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>4</v>
       </c>
@@ -20184,7 +20188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>4</v>
       </c>
@@ -20265,7 +20269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>4</v>
       </c>
@@ -20328,7 +20332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>4</v>
       </c>
@@ -20394,7 +20398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>4</v>
       </c>
@@ -20454,7 +20458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>4</v>
       </c>
@@ -20529,7 +20533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>4</v>
       </c>
@@ -20556,7 +20560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>4</v>
       </c>
@@ -20637,7 +20641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>4</v>
       </c>
@@ -20712,7 +20716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>4</v>
       </c>
@@ -20781,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>4</v>
       </c>
@@ -20853,7 +20857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>4</v>
       </c>
@@ -20919,7 +20923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>4</v>
       </c>
@@ -20997,7 +21001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>4</v>
       </c>
@@ -21072,7 +21076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>4</v>
       </c>
@@ -21147,7 +21151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>4</v>
       </c>
@@ -21222,7 +21226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>4</v>
       </c>
@@ -21264,7 +21268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>4</v>
       </c>
@@ -21312,7 +21316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>4</v>
       </c>
@@ -21390,7 +21394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>4</v>
       </c>
@@ -21474,7 +21478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>4</v>
       </c>
@@ -21540,7 +21544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>4</v>
       </c>
@@ -21603,7 +21607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>4</v>
       </c>
@@ -21654,7 +21658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>4</v>
       </c>
@@ -21726,7 +21730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>4</v>
       </c>
@@ -21771,7 +21775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>4</v>
       </c>
@@ -21816,7 +21820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>4</v>
       </c>
@@ -21891,7 +21895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>4</v>
       </c>
@@ -21969,7 +21973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>4</v>
       </c>
@@ -22047,7 +22051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>4</v>
       </c>
@@ -22125,7 +22129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>4</v>
       </c>
@@ -22203,7 +22207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>4</v>
       </c>
@@ -22284,7 +22288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>4</v>
       </c>
@@ -22362,7 +22366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>4</v>
       </c>
@@ -22443,7 +22447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>4</v>
       </c>
@@ -22497,7 +22501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>4</v>
       </c>
@@ -22536,7 +22540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>4</v>
       </c>
@@ -22614,7 +22618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>4</v>
       </c>
@@ -22692,7 +22696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>4</v>
       </c>
@@ -22767,7 +22771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>4</v>
       </c>
@@ -22836,7 +22840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>4</v>
       </c>
@@ -22908,7 +22912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>4</v>
       </c>
@@ -22983,7 +22987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>4</v>
       </c>
@@ -23046,7 +23050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>4</v>
       </c>
@@ -23124,7 +23128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>4</v>
       </c>
@@ -23190,7 +23194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>4</v>
       </c>
@@ -23256,7 +23260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>4</v>
       </c>
@@ -23322,7 +23326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>4</v>
       </c>
@@ -23388,7 +23392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>4</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>4</v>
       </c>
@@ -23547,7 +23551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>4</v>
       </c>
@@ -23619,7 +23623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>4</v>
       </c>
@@ -23664,7 +23668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>4</v>
       </c>
@@ -23730,7 +23734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>4</v>
       </c>
@@ -23802,7 +23806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>4</v>
       </c>
@@ -23877,7 +23881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>4</v>
       </c>
@@ -23952,7 +23956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>4</v>
       </c>
@@ -24027,7 +24031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>4</v>
       </c>
@@ -24102,7 +24106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>4</v>
       </c>
@@ -24177,7 +24181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>4</v>
       </c>
@@ -24237,7 +24241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>4</v>
       </c>
@@ -24294,7 +24298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>4</v>
       </c>
@@ -24369,7 +24373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>4</v>
       </c>
@@ -24441,7 +24445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>4</v>
       </c>
@@ -24519,7 +24523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>4</v>
       </c>
@@ -24591,7 +24595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>4</v>
       </c>
@@ -24663,7 +24667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>4</v>
       </c>
@@ -24735,7 +24739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>4</v>
       </c>
@@ -24807,7 +24811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>4</v>
       </c>
@@ -24879,7 +24883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>4</v>
       </c>
@@ -24951,7 +24955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>4</v>
       </c>
@@ -25026,7 +25030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>4</v>
       </c>
@@ -25098,7 +25102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>4</v>
       </c>
@@ -25170,7 +25174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>4</v>
       </c>
@@ -25242,7 +25246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>4</v>
       </c>
@@ -25320,7 +25324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>4</v>
       </c>
@@ -25398,7 +25402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>4</v>
       </c>
@@ -25476,7 +25480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>4</v>
       </c>
@@ -25554,7 +25558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>4</v>
       </c>
@@ -25632,7 +25636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>4</v>
       </c>
@@ -25710,7 +25714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>4</v>
       </c>
@@ -25788,7 +25792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>4</v>
       </c>
@@ -25866,7 +25870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>4</v>
       </c>
@@ -25941,7 +25945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>4</v>
       </c>
@@ -26019,7 +26023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>4</v>
       </c>
@@ -26097,7 +26101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>4</v>
       </c>
@@ -26175,7 +26179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>4</v>
       </c>
@@ -26253,7 +26257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>4</v>
       </c>
@@ -26322,7 +26326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>4</v>
       </c>
@@ -26397,7 +26401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>4</v>
       </c>
@@ -26475,7 +26479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>4</v>
       </c>
@@ -26553,7 +26557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>4</v>
       </c>
@@ -26631,7 +26635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>4</v>
       </c>
@@ -26709,7 +26713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>4</v>
       </c>
@@ -26787,7 +26791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>4</v>
       </c>
@@ -26865,7 +26869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>4</v>
       </c>
@@ -26940,7 +26944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>4</v>
       </c>
@@ -27018,7 +27022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>4</v>
       </c>
@@ -27096,7 +27100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>4</v>
       </c>
@@ -27174,7 +27178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>4</v>
       </c>
@@ -27252,7 +27256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>4</v>
       </c>
@@ -27330,7 +27334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>2</v>
       </c>
@@ -27408,7 +27412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>2</v>
       </c>
@@ -27486,7 +27490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>2</v>
       </c>
@@ -27564,7 +27568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>2</v>
       </c>
@@ -27642,7 +27646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>2</v>
       </c>
@@ -27720,7 +27724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>2</v>
       </c>
@@ -27798,7 +27802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>2</v>
       </c>
@@ -27873,7 +27877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>2</v>
       </c>
@@ -27948,7 +27952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>2</v>
       </c>
@@ -28095,7 +28099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>2</v>
       </c>
@@ -28173,7 +28177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>2</v>
       </c>
@@ -28254,7 +28258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>2</v>
       </c>
@@ -28332,7 +28336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>2</v>
       </c>
@@ -28479,7 +28483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>2</v>
       </c>
@@ -28554,7 +28558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>2</v>
       </c>
@@ -28626,7 +28630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>2</v>
       </c>
@@ -28701,7 +28705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>2</v>
       </c>
@@ -28779,7 +28783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>2</v>
       </c>
@@ -28848,7 +28852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>2</v>
       </c>
@@ -28926,7 +28930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>3</v>
       </c>
@@ -29004,7 +29008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>3</v>
       </c>
@@ -29082,7 +29086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>3</v>
       </c>
@@ -29166,7 +29170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>3</v>
       </c>
@@ -29250,7 +29254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>3</v>
       </c>
@@ -29328,7 +29332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>3</v>
       </c>
@@ -29409,7 +29413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>3</v>
       </c>
@@ -29487,7 +29491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>3</v>
       </c>
@@ -29649,7 +29653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>3</v>
       </c>
@@ -29730,7 +29734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>3</v>
       </c>
@@ -29811,7 +29815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>3</v>
       </c>
@@ -29892,7 +29896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>3</v>
       </c>
@@ -30054,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>3</v>
       </c>
@@ -30210,7 +30214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>3</v>
       </c>
@@ -30285,7 +30289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>3</v>
       </c>
@@ -30366,7 +30370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>3</v>
       </c>
@@ -30447,7 +30451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>3</v>
       </c>
@@ -30525,7 +30529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>3</v>
       </c>
@@ -30759,7 +30763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>3</v>
       </c>
@@ -30843,7 +30847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>3</v>
       </c>
@@ -30924,7 +30928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>3</v>
       </c>
@@ -31005,7 +31009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>3</v>
       </c>
@@ -31083,7 +31087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>3</v>
       </c>
@@ -31161,7 +31165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>3</v>
       </c>
@@ -31242,7 +31246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>3</v>
       </c>
@@ -31320,7 +31324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>3</v>
       </c>
@@ -31398,7 +31402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>3</v>
       </c>
@@ -31476,7 +31480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>3</v>
       </c>
@@ -31554,7 +31558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>3</v>
       </c>
@@ -31632,7 +31636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>3</v>
       </c>
@@ -31692,7 +31696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>3</v>
       </c>
@@ -31761,7 +31765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>3</v>
       </c>
@@ -31842,7 +31846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>3</v>
       </c>
@@ -31923,7 +31927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>3</v>
       </c>
@@ -32004,7 +32008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>3</v>
       </c>
@@ -32085,7 +32089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>3</v>
       </c>
@@ -32166,7 +32170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>3</v>
       </c>
@@ -32247,7 +32251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>3</v>
       </c>
@@ -32328,7 +32332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>3</v>
       </c>
@@ -32406,7 +32410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>3</v>
       </c>
@@ -32487,7 +32491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>3</v>
       </c>
@@ -32568,7 +32572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>3</v>
       </c>
@@ -32646,7 +32650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>3</v>
       </c>
@@ -32727,7 +32731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>3</v>
       </c>
@@ -32808,7 +32812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>3</v>
       </c>
@@ -32886,7 +32890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>3</v>
       </c>
@@ -32964,7 +32968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>3</v>
       </c>
@@ -33042,7 +33046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>3</v>
       </c>
@@ -33120,7 +33124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>3</v>
       </c>
@@ -33198,7 +33202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>3</v>
       </c>
@@ -33273,7 +33277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>3</v>
       </c>
@@ -33351,7 +33355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>3</v>
       </c>
@@ -33429,7 +33433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>3</v>
       </c>
@@ -33507,7 +33511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>3</v>
       </c>
@@ -33588,7 +33592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>3</v>
       </c>
@@ -33666,7 +33670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>3</v>
       </c>
@@ -33747,7 +33751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>3</v>
       </c>
@@ -33828,7 +33832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>3</v>
       </c>
@@ -33909,7 +33913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>3</v>
       </c>
@@ -33990,7 +33994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>3</v>
       </c>
@@ -34071,7 +34075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>3</v>
       </c>
@@ -34152,7 +34156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>3</v>
       </c>
@@ -34233,7 +34237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>3</v>
       </c>
@@ -34314,7 +34318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>3</v>
       </c>
@@ -34395,7 +34399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>3</v>
       </c>
@@ -34473,7 +34477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>3</v>
       </c>
@@ -34551,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>3</v>
       </c>
@@ -34629,7 +34633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>3</v>
       </c>
@@ -34707,7 +34711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>3</v>
       </c>
@@ -34785,7 +34789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>3</v>
       </c>
@@ -34863,7 +34867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>3</v>
       </c>
@@ -34938,7 +34942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>3</v>
       </c>
@@ -35016,7 +35020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>3</v>
       </c>
@@ -35097,7 +35101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>3</v>
       </c>
@@ -35175,7 +35179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>3</v>
       </c>
@@ -35253,7 +35257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>3</v>
       </c>
@@ -35334,7 +35338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>3</v>
       </c>
@@ -35412,7 +35416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>3</v>
       </c>
@@ -35493,7 +35497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>3</v>
       </c>
@@ -35574,7 +35578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>3</v>
       </c>
@@ -35655,7 +35659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>3</v>
       </c>
@@ -35736,7 +35740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>3</v>
       </c>
@@ -35817,7 +35821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>3</v>
       </c>
@@ -35898,7 +35902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>3</v>
       </c>
@@ -35976,7 +35980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>3</v>
       </c>
@@ -36054,7 +36058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>3</v>
       </c>
@@ -36132,7 +36136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>3</v>
       </c>
@@ -36210,7 +36214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>3</v>
       </c>
@@ -36288,7 +36292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>3</v>
       </c>
@@ -36363,7 +36367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>3</v>
       </c>
@@ -36441,7 +36445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>3</v>
       </c>
@@ -36519,7 +36523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>3</v>
       </c>
@@ -36597,7 +36601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>3</v>
       </c>
@@ -36675,7 +36679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>3</v>
       </c>
@@ -36753,7 +36757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>3</v>
       </c>
@@ -36831,7 +36835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>3</v>
       </c>
@@ -36909,7 +36913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>3</v>
       </c>
@@ -36987,7 +36991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>3</v>
       </c>
@@ -37065,7 +37069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>3</v>
       </c>
@@ -37146,7 +37150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>3</v>
       </c>
@@ -37224,7 +37228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>3</v>
       </c>
@@ -37302,7 +37306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2</v>
       </c>
@@ -37380,7 +37384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2</v>
       </c>
@@ -37458,7 +37462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2</v>
       </c>
@@ -37533,7 +37537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>2</v>
       </c>
@@ -37605,7 +37609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>2</v>
       </c>
@@ -37665,7 +37669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>2</v>
       </c>
@@ -37740,7 +37744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>2</v>
       </c>
@@ -37821,7 +37825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2</v>
       </c>
@@ -37893,7 +37897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>2</v>
       </c>
@@ -37974,7 +37978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>2</v>
       </c>
@@ -38049,7 +38053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>2</v>
       </c>
@@ -38127,7 +38131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2</v>
       </c>
@@ -38265,7 +38269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="520" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2</v>
       </c>
@@ -38322,7 +38326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>2</v>
       </c>
@@ -38397,7 +38401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2</v>
       </c>
@@ -38478,7 +38482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2</v>
       </c>
@@ -38550,7 +38554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2</v>
       </c>
@@ -38610,7 +38614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>2</v>
       </c>
@@ -38676,7 +38680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>2</v>
       </c>
@@ -38757,7 +38761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>2</v>
       </c>
@@ -38829,7 +38833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>2</v>
       </c>
@@ -38895,7 +38899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2</v>
       </c>
@@ -38961,7 +38965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2</v>
       </c>
@@ -39042,7 +39046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2</v>
       </c>
@@ -39105,7 +39109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2</v>
       </c>
@@ -39171,7 +39175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>2</v>
       </c>
@@ -39240,7 +39244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>2</v>
       </c>
@@ -39306,7 +39310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>2</v>
       </c>
@@ -39387,7 +39391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>2</v>
       </c>
@@ -39465,7 +39469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>2</v>
       </c>
@@ -39546,7 +39550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2</v>
       </c>
@@ -39612,7 +39616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2</v>
       </c>
@@ -39678,7 +39682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>2</v>
       </c>
@@ -39756,7 +39760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>2</v>
       </c>
@@ -39834,7 +39838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>2</v>
       </c>
@@ -39900,7 +39904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>2</v>
       </c>
@@ -39969,7 +39973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>2</v>
       </c>
@@ -40035,7 +40039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>2</v>
       </c>
@@ -40116,7 +40120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2</v>
       </c>
@@ -40197,7 +40201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>2</v>
       </c>
@@ -40260,7 +40264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2</v>
       </c>
@@ -40323,7 +40327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>2</v>
       </c>
@@ -40404,7 +40408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2</v>
       </c>
@@ -40485,7 +40489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2</v>
       </c>
@@ -40566,7 +40570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2</v>
       </c>
@@ -40647,7 +40651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2</v>
       </c>
@@ -40722,7 +40726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2</v>
       </c>
@@ -40794,7 +40798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2</v>
       </c>
@@ -40869,7 +40873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>2</v>
       </c>
@@ -40947,7 +40951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>2</v>
       </c>
@@ -41022,7 +41026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>2</v>
       </c>
@@ -41085,7 +41089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>2</v>
       </c>
@@ -41160,7 +41164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>2</v>
       </c>
@@ -41235,7 +41239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>2</v>
       </c>
@@ -41313,7 +41317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>2</v>
       </c>
@@ -41394,7 +41398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>2</v>
       </c>
@@ -41475,7 +41479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>2</v>
       </c>
@@ -41544,7 +41548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>2</v>
       </c>
@@ -41607,7 +41611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>2</v>
       </c>
@@ -41673,7 +41677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>2</v>
       </c>
@@ -41736,7 +41740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>2</v>
       </c>
@@ -41808,7 +41812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>2</v>
       </c>
@@ -41877,7 +41881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>2</v>
       </c>
@@ -41943,7 +41947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="571" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>2</v>
       </c>
@@ -42009,7 +42013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="572" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>2</v>
       </c>
@@ -42078,7 +42082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="573" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>2</v>
       </c>
@@ -42147,7 +42151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="574" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>2</v>
       </c>
@@ -42225,7 +42229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>2</v>
       </c>
@@ -42303,7 +42307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>2</v>
       </c>
@@ -42381,7 +42385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>2</v>
       </c>
@@ -42462,7 +42466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>2</v>
       </c>
@@ -42540,7 +42544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>2</v>
       </c>
@@ -42618,7 +42622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>2</v>
       </c>
@@ -42696,7 +42700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2</v>
       </c>
@@ -42774,7 +42778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>2</v>
       </c>
@@ -42852,7 +42856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2</v>
       </c>
@@ -42933,7 +42937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>2</v>
       </c>
@@ -43011,7 +43015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>2</v>
       </c>
@@ -43089,7 +43093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>2</v>
       </c>
@@ -43170,7 +43174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>2</v>
       </c>
@@ -43242,7 +43246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>2</v>
       </c>
@@ -43320,7 +43324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>2</v>
       </c>
@@ -43395,7 +43399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>2</v>
       </c>
@@ -43452,7 +43456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="591" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>2</v>
       </c>
@@ -43509,7 +43513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>2</v>
       </c>
@@ -43566,7 +43570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="593" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2</v>
       </c>
@@ -43623,7 +43627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="594" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>2</v>
       </c>
@@ -43704,7 +43708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>2</v>
       </c>
@@ -43782,7 +43786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>2</v>
       </c>
@@ -43860,7 +43864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>2</v>
       </c>
@@ -43941,7 +43945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>2</v>
       </c>
@@ -44019,7 +44023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>2</v>
       </c>
@@ -44097,7 +44101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>2</v>
       </c>
@@ -44178,7 +44182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>2</v>
       </c>
@@ -44250,7 +44254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>2</v>
       </c>
@@ -44307,7 +44311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="603" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>2</v>
       </c>
@@ -44373,7 +44377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>2</v>
       </c>
@@ -44439,7 +44443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>2</v>
       </c>
@@ -44517,7 +44521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>2</v>
       </c>
@@ -44586,7 +44590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>2</v>
       </c>
@@ -44658,7 +44662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>2</v>
       </c>
@@ -44730,7 +44734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>2</v>
       </c>
@@ -44784,7 +44788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>2</v>
       </c>
@@ -44853,7 +44857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>2</v>
       </c>
@@ -44910,7 +44914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>2</v>
       </c>
@@ -44961,7 +44965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="613" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>2</v>
       </c>
@@ -45009,7 +45013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>2</v>
       </c>
@@ -45057,7 +45061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="615" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>2</v>
       </c>
@@ -45105,7 +45109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="616" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>2</v>
       </c>
@@ -45153,7 +45157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>2</v>
       </c>
@@ -45225,7 +45229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>2</v>
       </c>
@@ -45273,7 +45277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>2</v>
       </c>
@@ -45348,7 +45352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>2</v>
       </c>
@@ -45588,7 +45592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>2</v>
       </c>
@@ -45660,7 +45664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>2</v>
       </c>
@@ -45741,7 +45745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2</v>
       </c>
@@ -45813,7 +45817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2</v>
       </c>
@@ -45888,7 +45892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2</v>
       </c>
@@ -45960,7 +45964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>2</v>
       </c>
@@ -46020,7 +46024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>2</v>
       </c>
@@ -46089,7 +46093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>5</v>
       </c>
@@ -46164,7 +46168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>5</v>
       </c>
@@ -46209,7 +46213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="632" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>5</v>
       </c>
@@ -46257,7 +46261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="633" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>5</v>
       </c>
@@ -46335,7 +46339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>5</v>
       </c>
@@ -46413,7 +46417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>5</v>
       </c>
@@ -46494,7 +46498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>5</v>
       </c>
@@ -46572,7 +46576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>5</v>
       </c>
@@ -46650,7 +46654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>5</v>
       </c>
@@ -46731,7 +46735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>5</v>
       </c>
@@ -46812,7 +46816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>5</v>
       </c>
@@ -46893,7 +46897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>5</v>
       </c>
@@ -46971,7 +46975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="642" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>5</v>
       </c>
@@ -47052,7 +47056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>5</v>
       </c>
@@ -47133,7 +47137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>5</v>
       </c>
@@ -47211,7 +47215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>5</v>
       </c>
@@ -47364,7 +47368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>5</v>
       </c>
@@ -47445,7 +47449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>5</v>
       </c>
@@ -47526,7 +47530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>5</v>
       </c>
@@ -47607,7 +47611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>5</v>
       </c>
@@ -47682,7 +47686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>5</v>
       </c>
@@ -47760,7 +47764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>5</v>
       </c>
@@ -47841,7 +47845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>5</v>
       </c>
@@ -47922,7 +47926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>5</v>
       </c>
@@ -48000,7 +48004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>5</v>
       </c>
@@ -48081,7 +48085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>5</v>
       </c>
@@ -48147,7 +48151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>5</v>
       </c>
@@ -48228,7 +48232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>5</v>
       </c>
@@ -48291,7 +48295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="659" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>5</v>
       </c>
@@ -48369,7 +48373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>5</v>
       </c>
@@ -48447,7 +48451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>5</v>
       </c>
@@ -48522,7 +48526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>5</v>
       </c>
@@ -48600,7 +48604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>5</v>
       </c>
@@ -48681,7 +48685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>5</v>
       </c>
@@ -48759,7 +48763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>5</v>
       </c>
@@ -48837,7 +48841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>5</v>
       </c>
@@ -48918,7 +48922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>5</v>
       </c>
@@ -48996,7 +49000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>5</v>
       </c>
@@ -49068,7 +49072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="669" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>5</v>
       </c>
@@ -49146,7 +49150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>5</v>
       </c>
@@ -49227,7 +49231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>5</v>
       </c>
@@ -49284,7 +49288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>5</v>
       </c>
@@ -49365,7 +49369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>5</v>
       </c>
@@ -49449,7 +49453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>5</v>
       </c>
@@ -49524,7 +49528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>5</v>
       </c>
@@ -49767,7 +49771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>5</v>
       </c>
@@ -49836,7 +49840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>5</v>
       </c>
@@ -49911,7 +49915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="680" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>5</v>
       </c>
@@ -49992,7 +49996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>5</v>
       </c>
@@ -50070,7 +50074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>5</v>
       </c>
@@ -50148,7 +50152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>5</v>
       </c>
@@ -50226,7 +50230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>5</v>
       </c>
@@ -50304,7 +50308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>5</v>
       </c>
@@ -50460,7 +50464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>5</v>
       </c>
@@ -50535,7 +50539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>5</v>
       </c>
@@ -50607,7 +50611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>5</v>
       </c>
@@ -50685,7 +50689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>5</v>
       </c>
@@ -50763,7 +50767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>5</v>
       </c>
@@ -50841,7 +50845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>5</v>
       </c>
@@ -50919,7 +50923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>5</v>
       </c>
@@ -50997,7 +51001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>5</v>
       </c>
@@ -51075,7 +51079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>5</v>
       </c>
@@ -51153,7 +51157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>5</v>
       </c>
@@ -51231,7 +51235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>5</v>
       </c>
@@ -51306,7 +51310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>5</v>
       </c>
@@ -51384,7 +51388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>5</v>
       </c>
@@ -51411,7 +51415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="700" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>5</v>
       </c>
@@ -51492,7 +51496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>5</v>
       </c>
@@ -51570,7 +51574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>5</v>
       </c>
@@ -51648,7 +51652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>5</v>
       </c>
@@ -51804,7 +51808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>5</v>
       </c>
@@ -51882,7 +51886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>5</v>
       </c>
@@ -51960,7 +51964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>5</v>
       </c>
@@ -52038,7 +52042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>5</v>
       </c>
@@ -52116,7 +52120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>5</v>
       </c>
@@ -52194,7 +52198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>5</v>
       </c>
@@ -52272,7 +52276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>5</v>
       </c>
@@ -52350,7 +52354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>5</v>
       </c>
@@ -52428,7 +52432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>5</v>
       </c>
@@ -52506,7 +52510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>5</v>
       </c>
@@ -52581,7 +52585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>5</v>
       </c>
@@ -52659,7 +52663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>5</v>
       </c>
@@ -52737,7 +52741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>5</v>
       </c>
@@ -52815,7 +52819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>5</v>
       </c>
@@ -52893,7 +52897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>5</v>
       </c>
@@ -52968,7 +52972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>5</v>
       </c>
@@ -53046,7 +53050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>5</v>
       </c>
@@ -53124,7 +53128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>5</v>
       </c>
@@ -53202,7 +53206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>5</v>
       </c>
@@ -53280,7 +53284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>5</v>
       </c>
@@ -53358,7 +53362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>5</v>
       </c>
@@ -53439,7 +53443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>5</v>
       </c>
@@ -53476,6 +53480,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD726" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
